--- a/optimizationModel/dataInputs/reData.xlsx
+++ b/optimizationModel/dataInputs/reData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\KAUST\optimizationModel\dataInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056972D7-BAEA-4508-925B-EB493A116EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968C9F28-6D4F-4695-9C06-794B3BDCAA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4104" yWindow="936" windowWidth="17208" windowHeight="11304" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cfSolar" sheetId="1" r:id="rId1"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,11 +392,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <f>B2/(1.5*MAX($B$2:$B$25))</f>
+        <f>B2/(1*MAX($B$2:$B$193))</f>
         <v>0</v>
       </c>
     </row>
@@ -404,11 +404,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C25" si="0">B3/(1.5*MAX($B$2:$B$25))</f>
+        <f t="shared" ref="C3:C66" si="0">B3/(1*MAX($B$2:$B$193))</f>
         <v>0</v>
       </c>
     </row>
@@ -416,7 +416,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1">
@@ -428,7 +428,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
@@ -440,211 +440,211 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" s="1">
+        <v>37.049999999999997</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.0832807397854181E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>500</v>
+      <c r="B7" s="1">
+        <v>194.12</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>4.6296296296296294E-2</v>
+        <v>0.26633372664160471</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1200</v>
+      <c r="B8" s="1">
+        <v>365.87</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.50197568806080728</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>2000</v>
+      <c r="B9" s="1">
+        <v>516.02</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.18518518518518517</v>
+        <v>0.70798232856790055</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>3000</v>
+      <c r="B10" s="1">
+        <v>591.79</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.27777777777777779</v>
+        <v>0.81193919271190618</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>4000</v>
+      <c r="B11" s="1">
+        <v>630.91999999999996</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.37037037037037035</v>
+        <v>0.8656257717531487</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>6500</v>
+      <c r="B12" s="1">
+        <v>571.98</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>0.60185185185185186</v>
+        <v>0.78475976181982821</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>7000</v>
+      <c r="B13" s="1">
+        <v>462.3</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>0.64814814814814814</v>
+        <v>0.63427818785500645</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>7200</v>
+      <c r="B14" s="1">
+        <v>318.88</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.43750514502099169</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>6600</v>
+      <c r="B15" s="1">
+        <v>165.96</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>0.61111111111111116</v>
+        <v>0.22769804900803997</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>6000</v>
+      <c r="B16" s="1">
+        <v>28.63</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>3.9280520264522674E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>4900</v>
+      <c r="B17" s="1">
+        <v>0</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
-        <v>0.45370370370370372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>4000</v>
+      <c r="B18" s="1">
+        <v>0</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>0.37037037037037035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>3000</v>
+      <c r="B19" s="1">
+        <v>0</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
-        <v>0.27777777777777779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>2000</v>
+      <c r="B20" s="1">
+        <v>0</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>0.18518518518518517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>1000</v>
+      <c r="B21" s="1">
+        <v>0</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>9.2592592592592587E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>300</v>
+      <c r="B22" s="1">
+        <v>0</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>2.7777777777777776E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>0</v>
       </c>
       <c r="C23" s="1">
@@ -656,7 +656,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>0</v>
       </c>
       <c r="C24" s="1">
@@ -668,13 +668,2989 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>0</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>A25+1</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <f t="shared" ref="A27:A90" si="1">A26+1</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>42.15</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>5.7830035946546655E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>212.79</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2919490711522103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>409.64</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56202837307576214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>564.34</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77427763905276736</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>662.77</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90932415004253209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>691.95</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94935927338583548</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>656.29</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90043355376889933</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>540.73</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74188458688911452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>399.59</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.54823971681804462</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>209.27</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28711961144801473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>32.89</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5125264111077576E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>46.75</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4141261696347721E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>237.65</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32605713031309169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>437.7</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60052685014954854</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>606.54999999999995</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8321899953351809</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>699.55</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9597865159289849</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>728.86</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>682.28</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="0"/>
+        <v>0.93609197925527532</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>578.37</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79352687758966056</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>411.14</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56408638147243639</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>212.2</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29113958784951838</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7745794802842793E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" ref="C67:C130" si="2">B67/(1*MAX($B$2:$B$193))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>47.8</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="2"/>
+        <v>6.5581867574019695E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>240.2</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="2"/>
+        <v>0.32955574458743792</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>438.2</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="2"/>
+        <v>0.60121285294843996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>599.23</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="2"/>
+        <v>0.82214691435941056</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>698.39</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="2"/>
+        <v>0.95819498943555681</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>702.74</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96416321378591219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>661.56</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9076640232692148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>549.14</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7534231539664682</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>393.02</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53922564004061135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>207.78</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="2"/>
+        <v>0.28507532310731826</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>33.619999999999997</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="2"/>
+        <v>4.6126828197459044E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <f t="shared" ref="A91:A154" si="3">A90+1</f>
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="B102" s="1">
+        <v>44.09</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="2"/>
+        <v>6.0491726806245372E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="B103" s="1">
+        <v>227.57</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="2"/>
+        <v>0.31222731388744063</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="B104" s="1">
+        <v>422.37</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="2"/>
+        <v>0.57949400433553766</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="B105" s="1">
+        <v>581.48</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="2"/>
+        <v>0.79779381499876523</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="B106" s="1">
+        <v>681.8</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="2"/>
+        <v>0.93543341656833956</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="B107" s="1">
+        <v>711.97</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9768268254534479</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="B108" s="1">
+        <v>673.07</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="2"/>
+        <v>0.92345580769969549</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="B109" s="1">
+        <v>573.79999999999995</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="2"/>
+        <v>0.78725681200779296</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="B110" s="1">
+        <v>409.38</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="2"/>
+        <v>0.56167165162033861</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="B111" s="1">
+        <v>214.02</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="2"/>
+        <v>0.29363663803748319</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="B112" s="1">
+        <v>35.75</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="2"/>
+        <v>4.9049200120736491E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="B115" s="1">
+        <v>0</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="B123" s="1">
+        <v>0</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="B126" s="1">
+        <v>45.34</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="2"/>
+        <v>6.220673380347392E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="B127" s="1">
+        <v>231.19</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="2"/>
+        <v>0.31719397415141454</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="B128" s="1">
+        <v>427.23</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="2"/>
+        <v>0.58616195154076234</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="B129" s="1">
+        <v>587.49</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="2"/>
+        <v>0.80603956864144011</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="B130" s="1">
+        <v>685.03</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="2"/>
+        <v>0.93986499464917816</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="B131" s="1">
+        <v>687.72</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" ref="C131:C193" si="4">B131/(1*MAX($B$2:$B$193))</f>
+        <v>0.94355568970721404</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="B132" s="1">
+        <v>626.76</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="4"/>
+        <v>0.85991822846637211</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="B133" s="1">
+        <v>535.98</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="4"/>
+        <v>0.73536756029964601</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="B134" s="1">
+        <v>375.88</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="4"/>
+        <v>0.51570946409461349</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+      <c r="B135" s="1">
+        <v>197.88</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" si="4"/>
+        <v>0.27149246768926816</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="B136" s="1">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="4"/>
+        <v>4.5207584446944546E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="B137" s="1">
+        <v>0</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+      <c r="B138" s="1">
+        <v>0</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="B139" s="1">
+        <v>0</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+      <c r="B140" s="1">
+        <v>0</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="B141" s="1">
+        <v>0</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="B142" s="1">
+        <v>0</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+      <c r="B143" s="1">
+        <v>0</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+      <c r="B144" s="1">
+        <v>0</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="B145" s="1">
+        <v>0</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <f t="shared" si="3"/>
+        <v>145</v>
+      </c>
+      <c r="B146" s="1">
+        <v>0</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <f t="shared" si="3"/>
+        <v>146</v>
+      </c>
+      <c r="B147" s="1">
+        <v>0</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <f t="shared" si="3"/>
+        <v>147</v>
+      </c>
+      <c r="B148" s="1">
+        <v>0</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <f t="shared" si="3"/>
+        <v>148</v>
+      </c>
+      <c r="B149" s="1">
+        <v>0</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+      <c r="B150" s="1">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" si="4"/>
+        <v>5.4358861784156075E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="B151" s="1">
+        <v>219.62</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" si="4"/>
+        <v>0.30131986938506711</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="B152" s="1">
+        <v>398.62</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" si="4"/>
+        <v>0.54690887138819522</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+      <c r="B153" s="1">
+        <v>557.66</v>
+      </c>
+      <c r="C153" s="1">
+        <f t="shared" si="4"/>
+        <v>0.76511264165957793</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <f t="shared" si="3"/>
+        <v>153</v>
+      </c>
+      <c r="B154" s="1">
+        <v>657.79</v>
+      </c>
+      <c r="C154" s="1">
+        <f t="shared" si="4"/>
+        <v>0.90249156216557358</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <f t="shared" ref="A155:A193" si="5">A154+1</f>
+        <v>154</v>
+      </c>
+      <c r="B155" s="1">
+        <v>680.62</v>
+      </c>
+      <c r="C155" s="1">
+        <f t="shared" si="4"/>
+        <v>0.93381444996295582</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <f t="shared" si="5"/>
+        <v>155</v>
+      </c>
+      <c r="B156" s="1">
+        <v>642.04999999999995</v>
+      </c>
+      <c r="C156" s="1">
+        <f t="shared" si="4"/>
+        <v>0.88089619405647168</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="B157" s="1">
+        <v>548.29999999999995</v>
+      </c>
+      <c r="C157" s="1">
+        <f t="shared" si="4"/>
+        <v>0.7522706692643305</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <f t="shared" si="5"/>
+        <v>157</v>
+      </c>
+      <c r="B158" s="1">
+        <v>385.34</v>
+      </c>
+      <c r="C158" s="1">
+        <f t="shared" si="4"/>
+        <v>0.52868863704963909</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
+      <c r="B159" s="1">
+        <v>203.23</v>
+      </c>
+      <c r="C159" s="1">
+        <f t="shared" si="4"/>
+        <v>0.27883269763740637</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+      <c r="B160" s="1">
+        <v>34.92</v>
+      </c>
+      <c r="C160" s="1">
+        <f t="shared" si="4"/>
+        <v>4.791043547457674E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="B161" s="1">
+        <v>0</v>
+      </c>
+      <c r="C161" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <f t="shared" si="5"/>
+        <v>161</v>
+      </c>
+      <c r="B162" s="1">
+        <v>0</v>
+      </c>
+      <c r="C162" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+      <c r="B163" s="1">
+        <v>0</v>
+      </c>
+      <c r="C163" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <f t="shared" si="5"/>
+        <v>163</v>
+      </c>
+      <c r="B164" s="1">
+        <v>0</v>
+      </c>
+      <c r="C164" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <f t="shared" si="5"/>
+        <v>164</v>
+      </c>
+      <c r="B165" s="1">
+        <v>0</v>
+      </c>
+      <c r="C165" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+      <c r="B166" s="1">
+        <v>0</v>
+      </c>
+      <c r="C166" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+      <c r="B167" s="1">
+        <v>0</v>
+      </c>
+      <c r="C167" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+      <c r="B168" s="1">
+        <v>0</v>
+      </c>
+      <c r="C168" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+      <c r="B169" s="1">
+        <v>0</v>
+      </c>
+      <c r="C169" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+      <c r="B170" s="1">
+        <v>0</v>
+      </c>
+      <c r="C170" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+      <c r="B171" s="1">
+        <v>0</v>
+      </c>
+      <c r="C171" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <f t="shared" si="5"/>
+        <v>171</v>
+      </c>
+      <c r="B172" s="1">
+        <v>0</v>
+      </c>
+      <c r="C172" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <f t="shared" si="5"/>
+        <v>172</v>
+      </c>
+      <c r="B173" s="1">
+        <v>0</v>
+      </c>
+      <c r="C173" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <f t="shared" si="5"/>
+        <v>173</v>
+      </c>
+      <c r="B174" s="1">
+        <v>44.16</v>
+      </c>
+      <c r="C174" s="1">
+        <f t="shared" si="4"/>
+        <v>6.0587767198090163E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <f t="shared" si="5"/>
+        <v>174</v>
+      </c>
+      <c r="B175" s="1">
+        <v>229.96</v>
+      </c>
+      <c r="C175" s="1">
+        <f t="shared" si="4"/>
+        <v>0.31550640726614165</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <f t="shared" si="5"/>
+        <v>175</v>
+      </c>
+      <c r="B176" s="1">
+        <v>426.57</v>
+      </c>
+      <c r="C176" s="1">
+        <f t="shared" si="4"/>
+        <v>0.58525642784622556</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <f t="shared" si="5"/>
+        <v>176</v>
+      </c>
+      <c r="B177" s="1">
+        <v>590.16</v>
+      </c>
+      <c r="C177" s="1">
+        <f t="shared" si="4"/>
+        <v>0.80970282358752022</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <f t="shared" si="5"/>
+        <v>177</v>
+      </c>
+      <c r="B178" s="1">
+        <v>688.95</v>
+      </c>
+      <c r="C178" s="1">
+        <f t="shared" si="4"/>
+        <v>0.94524325659248698</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <f t="shared" si="5"/>
+        <v>178</v>
+      </c>
+      <c r="B179" s="1">
+        <v>716.15</v>
+      </c>
+      <c r="C179" s="1">
+        <f t="shared" si="4"/>
+        <v>0.98256180885218003</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <f t="shared" si="5"/>
+        <v>179</v>
+      </c>
+      <c r="B180" s="1">
+        <v>677.11</v>
+      </c>
+      <c r="C180" s="1">
+        <f t="shared" si="4"/>
+        <v>0.92899871031473813</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="B181" s="1">
+        <v>568.88</v>
+      </c>
+      <c r="C181" s="1">
+        <f t="shared" si="4"/>
+        <v>0.78050654446670142</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <f t="shared" si="5"/>
+        <v>181</v>
+      </c>
+      <c r="B182" s="1">
+        <v>402.53</v>
+      </c>
+      <c r="C182" s="1">
+        <f t="shared" si="4"/>
+        <v>0.55227341327552615</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <f t="shared" si="5"/>
+        <v>182</v>
+      </c>
+      <c r="B183" s="1">
+        <v>215.3</v>
+      </c>
+      <c r="C183" s="1">
+        <f t="shared" si="4"/>
+        <v>0.29539280520264521</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <f t="shared" si="5"/>
+        <v>183</v>
+      </c>
+      <c r="B184" s="1">
+        <v>36.17</v>
+      </c>
+      <c r="C184" s="1">
+        <f t="shared" si="4"/>
+        <v>4.9625442471805288E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <f t="shared" si="5"/>
+        <v>184</v>
+      </c>
+      <c r="B185" s="1">
+        <v>0</v>
+      </c>
+      <c r="C185" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <f t="shared" si="5"/>
+        <v>185</v>
+      </c>
+      <c r="B186" s="1">
+        <v>0</v>
+      </c>
+      <c r="C186" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <f t="shared" si="5"/>
+        <v>186</v>
+      </c>
+      <c r="B187" s="1">
+        <v>0</v>
+      </c>
+      <c r="C187" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <f t="shared" si="5"/>
+        <v>187</v>
+      </c>
+      <c r="B188" s="1">
+        <v>0</v>
+      </c>
+      <c r="C188" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <f t="shared" si="5"/>
+        <v>188</v>
+      </c>
+      <c r="B189" s="1">
+        <v>0</v>
+      </c>
+      <c r="C189" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <f t="shared" si="5"/>
+        <v>189</v>
+      </c>
+      <c r="B190" s="1">
+        <v>0</v>
+      </c>
+      <c r="C190" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <f t="shared" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="B191" s="1">
+        <v>0</v>
+      </c>
+      <c r="C191" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <f t="shared" si="5"/>
+        <v>191</v>
+      </c>
+      <c r="B192" s="1">
+        <v>0</v>
+      </c>
+      <c r="C192" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <f t="shared" si="5"/>
+        <v>192</v>
+      </c>
+      <c r="B193" s="1">
+        <v>0</v>
+      </c>
+      <c r="C193" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="1"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="1"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="1"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="1"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="1"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="1"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="1"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="1"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="1"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="1"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="1"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="1"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="1"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="1"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="1"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="1"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="1"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="1"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="1"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="1"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="1"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="1"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="1"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="1"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="1"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="1"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="1"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="1"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="1"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="1"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="1"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="1"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="1"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="1"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="1"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="1"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="1"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="1"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="1"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="1"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="1"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="1"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="1"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="1"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="1"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="1"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="1"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="1"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="1"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="1"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="1"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="1"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="1"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="1"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="1"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="1"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="1"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="1"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="1"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="1"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="1"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="1"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="1"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="1"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="1"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="1"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="1"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="1"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="1"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="1"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="1"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="1"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="1"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="1"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="1"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="1"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="1"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="1"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="1"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="1"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="1"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="1"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="1"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="1"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="1"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="1"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="1"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="1"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" s="1"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" s="1"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" s="1"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" s="1"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" s="1"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" s="1"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" s="1"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="1"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="1"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="1"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="1"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="1"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="1"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="1"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="1"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="1"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="1"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="1"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="1"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" s="1"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" s="1"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="1"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="1"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" s="1"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" s="1"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" s="1"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" s="1"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" s="1"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" s="1"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" s="1"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" s="1"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" s="1"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" s="1"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" s="1"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" s="1"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" s="1"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" s="1"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" s="1"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" s="1"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="1"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" s="1"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="1"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="1"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" s="1"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="1"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="1"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="1"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="1"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="1"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="1"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" s="1"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" s="1"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" s="1"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" s="1"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="1"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" s="1"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" s="1"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" s="1"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" s="1"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" s="1"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" s="1"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" s="1"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" s="1"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" s="1"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" s="1"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" s="1"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" s="1"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" s="1"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" s="1"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" s="1"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" s="1"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" s="1"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" s="1"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" s="1"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" s="1"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" s="1"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" s="1"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" s="1"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390" s="1"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" s="1"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" s="1"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393" s="1"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394" s="1"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395" s="1"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" s="1"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" s="1"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" s="1"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" s="1"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400" s="1"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401" s="1"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402" s="1"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403" s="1"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404" s="1"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405" s="1"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406" s="1"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407" s="1"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408" s="1"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409" s="1"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410" s="1"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411" s="1"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412" s="1"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413" s="1"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414" s="1"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415" s="1"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416" s="1"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417" s="1"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418" s="1"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419" s="1"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420" s="1"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421" s="1"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422" s="1"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423" s="1"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424" s="1"/>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425" s="1"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426" s="1"/>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427" s="1"/>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A428" s="1"/>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A429" s="1"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A430" s="1"/>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A431" s="1"/>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A432" s="1"/>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433" s="1"/>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434" s="1"/>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435" s="1"/>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436" s="1"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437" s="1"/>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438" s="1"/>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439" s="1"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440" s="1"/>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441" s="1"/>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442" s="1"/>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443" s="1"/>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444" s="1"/>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445" s="1"/>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446" s="1"/>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447" s="1"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448" s="1"/>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449" s="1"/>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A450" s="1"/>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A451" s="1"/>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A452" s="1"/>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A453" s="1"/>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A454" s="1"/>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A455" s="1"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A456" s="1"/>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A457" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -683,10 +3659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D457F6EB-CFA8-47C2-9569-0FDE92857B33}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C25"/>
+      <selection activeCell="C2" sqref="C2:C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,11 +3683,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>5.25</v>
+        <v>2.11</v>
       </c>
       <c r="C2">
-        <f>B2/(2.5*MAX($B$2:$B$25))</f>
-        <v>0.375</v>
+        <f>B2/(2.5*MAX($B$2:$B$193))</f>
+        <v>0.11870604781997185</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -719,11 +3695,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>5.4</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C25" si="0">B3/(2.5*MAX($B$2:$B$25))</f>
-        <v>0.38571428571428573</v>
+        <f t="shared" ref="C3:C66" si="0">B3/(2.5*MAX($B$2:$B$193))</f>
+        <v>0.11420534458509139</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -731,11 +3707,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5.6</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
+        <v>0.12489451476793248</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -743,11 +3719,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>5.6</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
+        <v>0.14120956399437409</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -755,11 +3731,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>5.5</v>
+        <v>2.76</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.39285714285714285</v>
+        <v>0.15527426160337549</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -767,11 +3743,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>5.4</v>
+        <v>2.5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.38571428571428573</v>
+        <v>0.14064697609001406</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -779,11 +3755,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>5.3</v>
+        <v>2.79</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.37857142857142856</v>
+        <v>0.15696202531645567</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -791,11 +3767,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>5.25</v>
+        <v>3.06</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.17215189873417719</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -803,11 +3779,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>5.25</v>
+        <v>3.33</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.18734177215189871</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -815,11 +3791,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>5.5</v>
+        <v>3.67</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.39285714285714285</v>
+        <v>0.20646976090014063</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -827,11 +3803,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>0.39285714285714285</v>
+        <v>0.21378340365682133</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -839,11 +3815,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>5.3</v>
+        <v>3.67</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>0.37857142857142856</v>
+        <v>0.20646976090014063</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -851,11 +3827,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>5.0999999999999996</v>
+        <v>3.34</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>0.36428571428571427</v>
+        <v>0.18790436005625877</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -863,11 +3839,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>5.2</v>
+        <v>2.95</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>0.37142857142857144</v>
+        <v>0.16596343178621659</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -875,11 +3851,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>5.25</v>
+        <v>3.05</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.17158931082981713</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -887,11 +3863,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>5.0999999999999996</v>
+        <v>3.4</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
-        <v>0.36428571428571427</v>
+        <v>0.19127988748241909</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -899,11 +3875,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>4.9000000000000004</v>
+        <v>3.62</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>0.35000000000000003</v>
+        <v>0.20365682137834035</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -911,11 +3887,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>4.4000000000000004</v>
+        <v>3.85</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
-        <v>0.31428571428571433</v>
+        <v>0.21659634317862164</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -923,11 +3899,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>0.27142857142857141</v>
+        <v>0.21490857946554145</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -935,11 +3911,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>0.25714285714285717</v>
+        <v>0.20140646976090013</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -947,11 +3923,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>3.9</v>
+        <v>3.44</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>0.27857142857142858</v>
+        <v>0.19353023909985934</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -959,11 +3935,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>4.4000000000000004</v>
+        <v>3.74</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>0.31428571428571433</v>
+        <v>0.21040787623066104</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -971,11 +3947,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>4.7</v>
+        <v>4.26</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>0.33571428571428574</v>
+        <v>0.23966244725738392</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -983,11 +3959,2027 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>5</v>
+        <v>4.78</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>0.35714285714285715</v>
+        <v>0.26891701828410686</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30154711673699014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33755274261603374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6.45</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36286919831223624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3881856540084388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1">
+        <v>7.11</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31504922644163147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16877637130801687</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11758087201125174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2.41</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13558368495077355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17271448663853725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2194092827004219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>24</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26385372714486638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>24</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5.32</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29929676511954989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>24</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32348804500703232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>24</v>
+      </c>
+      <c r="B40" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34317862165963425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>24</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5.68</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31954992967651191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>24</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4.54</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25541490857946553</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>24</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3.47</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19521800281293952</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>24</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14345991561181431</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>24</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12545710267229254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>24</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2.48</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13952180028129393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>24</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15696202531645567</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>24</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3.04</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17102672292545709</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>24</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3.28</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18452883263009842</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>24</v>
+      </c>
+      <c r="B50" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18846694796061883</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>24</v>
+      </c>
+      <c r="B51" s="1">
+        <v>3.51</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19746835443037972</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>24</v>
+      </c>
+      <c r="B52" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19071729957805905</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>24</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1834036568213783</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>24</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3.31</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18621659634317861</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>24</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12995780590717299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>24</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9943741209563989E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>24</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5949367088607597E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>24</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13052039381153302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>24</v>
+      </c>
+      <c r="B59" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17496483825597747</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>24</v>
+      </c>
+      <c r="B60" s="1">
+        <v>3.85</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21659634317862164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>24</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25710267229254569</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>24</v>
+      </c>
+      <c r="B62" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29254571026722925</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>24</v>
+      </c>
+      <c r="B63" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32067510548523204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>24</v>
+      </c>
+      <c r="B64" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33361462728551333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>24</v>
+      </c>
+      <c r="B65" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30379746835443039</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>24</v>
+      </c>
+      <c r="B66" s="1">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2565400843881856</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>24</v>
+      </c>
+      <c r="B67" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" ref="C67:C130" si="1">B67/(2.5*MAX($B$2:$B$193))</f>
+        <v>0.23459915611814341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>24</v>
+      </c>
+      <c r="B68" s="1">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22616033755274256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>24</v>
+      </c>
+      <c r="B69" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20872011251758085</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>24</v>
+      </c>
+      <c r="B70" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18396624472573839</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>24</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2.92</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1642756680731364</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>24</v>
+      </c>
+      <c r="B72" s="1">
+        <v>3.09</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17383966244725735</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>24</v>
+      </c>
+      <c r="B73" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19690576652601965</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>24</v>
+      </c>
+      <c r="B74" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="1"/>
+        <v>0.21603375527426158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>24</v>
+      </c>
+      <c r="B75" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23909985935302389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>24</v>
+      </c>
+      <c r="B76" s="1">
+        <v>4.59</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25822784810126581</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>24</v>
+      </c>
+      <c r="B77" s="1">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26610407876230663</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>24</v>
+      </c>
+      <c r="B78" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25879043600562585</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>24</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13614627285513359</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>24</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3066104078762303E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>24</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10239099859353024</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>24</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1631504922644163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>24</v>
+      </c>
+      <c r="B83" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20872011251758085</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>24</v>
+      </c>
+      <c r="B84" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23347398030942335</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>24</v>
+      </c>
+      <c r="B85" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24191279887482414</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>24</v>
+      </c>
+      <c r="B86" s="1">
+        <v>4.45</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25035161744022499</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>24</v>
+      </c>
+      <c r="B87" s="1">
+        <v>4.68</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26329113924050629</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>24</v>
+      </c>
+      <c r="B88" s="1">
+        <v>5.28</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2970464135021097</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>24</v>
+      </c>
+      <c r="B89" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="1"/>
+        <v>0.29817158931082977</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>24</v>
+      </c>
+      <c r="B90" s="1">
+        <v>4.22</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2374120956399437</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>24</v>
+      </c>
+      <c r="B91" s="1">
+        <v>3.24</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18227848101265823</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>24</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14964838255977495</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>24</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13220815752461321</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>24</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>24</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2.81</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1580872011251758</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>24</v>
+      </c>
+      <c r="B96" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1940928270042194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>24</v>
+      </c>
+      <c r="B97" s="1">
+        <v>4.16</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23403656821378338</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>24</v>
+      </c>
+      <c r="B98" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27229254571026718</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>24</v>
+      </c>
+      <c r="B99" s="1">
+        <v>5.35</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="1"/>
+        <v>0.30098452883263005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>24</v>
+      </c>
+      <c r="B100" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="1"/>
+        <v>0.31617440225035159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>24</v>
+      </c>
+      <c r="B101" s="1">
+        <v>5.69</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="1"/>
+        <v>0.320112517580872</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>24</v>
+      </c>
+      <c r="B102" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="1"/>
+        <v>0.31617440225035159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>24</v>
+      </c>
+      <c r="B103" s="1">
+        <v>3.47</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19521800281293952</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>24</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="1"/>
+        <v>8.1575246132208151E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>24</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2.27</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12770745428973276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>24</v>
+      </c>
+      <c r="B106" s="1">
+        <v>3.31</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18621659634317861</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>24</v>
+      </c>
+      <c r="B107" s="1">
+        <v>4.29</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24135021097046411</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>24</v>
+      </c>
+      <c r="B108" s="1">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26610407876230663</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>24</v>
+      </c>
+      <c r="B109" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26891701828410686</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>24</v>
+      </c>
+      <c r="B110" s="1">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26610407876230663</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>24</v>
+      </c>
+      <c r="B111" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26216596343178622</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>24</v>
+      </c>
+      <c r="B112" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2672292545710267</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>24</v>
+      </c>
+      <c r="B113" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26947960618846689</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>24</v>
+      </c>
+      <c r="B114" s="1">
+        <v>4.45</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25035161744022499</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>24</v>
+      </c>
+      <c r="B115" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23966244725738392</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>24</v>
+      </c>
+      <c r="B116" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22897327707454287</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>24</v>
+      </c>
+      <c r="B117" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20928270042194091</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>24</v>
+      </c>
+      <c r="B118" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18059071729957804</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>24</v>
+      </c>
+      <c r="B119" s="1">
+        <v>2.82</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="1"/>
+        <v>0.15864978902953583</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>24</v>
+      </c>
+      <c r="B120" s="1">
+        <v>3</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16877637130801687</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>24</v>
+      </c>
+      <c r="B121" s="1">
+        <v>3.55</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19971870604781994</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>24</v>
+      </c>
+      <c r="B122" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23459915611814341</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>24</v>
+      </c>
+      <c r="B123" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26947960618846689</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>24</v>
+      </c>
+      <c r="B124" s="1">
+        <v>5.33</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="1"/>
+        <v>0.29985935302390998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>24</v>
+      </c>
+      <c r="B125" s="1">
+        <v>5.66</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="1"/>
+        <v>0.31842475386779179</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>24</v>
+      </c>
+      <c r="B126" s="1">
+        <v>5.49</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="1"/>
+        <v>0.30886075949367087</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>24</v>
+      </c>
+      <c r="B127" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17271448663853725</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>24</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="1"/>
+        <v>7.144866385372714E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>24</v>
+      </c>
+      <c r="B129" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11308016877637128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>24</v>
+      </c>
+      <c r="B130" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16033755274261602</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>24</v>
+      </c>
+      <c r="B131" s="1">
+        <v>3.66</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" ref="C131:C193" si="2">B131/(2.5*MAX($B$2:$B$193))</f>
+        <v>0.20590717299578057</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>24</v>
+      </c>
+      <c r="B132" s="1">
+        <v>4.32</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24303797468354429</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>24</v>
+      </c>
+      <c r="B133" s="1">
+        <v>4.59</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25822784810126581</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>24</v>
+      </c>
+      <c r="B134" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25710267229254569</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>24</v>
+      </c>
+      <c r="B135" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" si="2"/>
+        <v>0.26441631504922641</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>24</v>
+      </c>
+      <c r="B136" s="1">
+        <v>5.08</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="2"/>
+        <v>0.28579465541490856</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>24</v>
+      </c>
+      <c r="B137" s="1">
+        <v>5.07</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="2"/>
+        <v>0.28523206751054853</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>24</v>
+      </c>
+      <c r="B138" s="1">
+        <v>4.53</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25485232067510549</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>24</v>
+      </c>
+      <c r="B139" s="1">
+        <v>3.94</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="2"/>
+        <v>0.22165963431786215</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>24</v>
+      </c>
+      <c r="B140" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17890295358649788</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>24</v>
+      </c>
+      <c r="B141" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14233473980309422</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>24</v>
+      </c>
+      <c r="B142" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13389592123769337</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>24</v>
+      </c>
+      <c r="B143" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14796061884669479</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>24</v>
+      </c>
+      <c r="B144" s="1">
+        <v>2.97</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16708860759493671</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>24</v>
+      </c>
+      <c r="B145" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18396624472573839</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>24</v>
+      </c>
+      <c r="B146" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20703234880450069</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>24</v>
+      </c>
+      <c r="B147" s="1">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" si="2"/>
+        <v>0.22616033755274256</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>24</v>
+      </c>
+      <c r="B148" s="1">
+        <v>4.22</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2374120956399437</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>24</v>
+      </c>
+      <c r="B149" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24078762306610407</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>24</v>
+      </c>
+      <c r="B150" s="1">
+        <v>4.04</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" si="2"/>
+        <v>0.22728551336146272</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>24</v>
+      </c>
+      <c r="B151" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14458509142053444</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>24</v>
+      </c>
+      <c r="B152" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3755274261603373E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>24</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="C153" s="1">
+        <f t="shared" si="2"/>
+        <v>5.794655414908579E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>24</v>
+      </c>
+      <c r="B154" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C154" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12714486638537267</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>24</v>
+      </c>
+      <c r="B155" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="C155" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20365682137834035</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>24</v>
+      </c>
+      <c r="B156" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="C156" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25316455696202528</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>24</v>
+      </c>
+      <c r="B157" s="1">
+        <v>5.05</v>
+      </c>
+      <c r="C157" s="1">
+        <f t="shared" si="2"/>
+        <v>0.28410689170182835</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>24</v>
+      </c>
+      <c r="B158" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="C158" s="1">
+        <f t="shared" si="2"/>
+        <v>0.29367088607594932</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>24</v>
+      </c>
+      <c r="B159" s="1">
+        <v>5.17</v>
+      </c>
+      <c r="C159" s="1">
+        <f t="shared" si="2"/>
+        <v>0.29085794655414904</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>24</v>
+      </c>
+      <c r="B160" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="C160" s="1">
+        <f t="shared" si="2"/>
+        <v>0.29254571026722925</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>24</v>
+      </c>
+      <c r="B161" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="C161" s="1">
+        <f t="shared" si="2"/>
+        <v>0.29142053445850907</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>24</v>
+      </c>
+      <c r="B162" s="1">
+        <v>4.67</v>
+      </c>
+      <c r="C162" s="1">
+        <f t="shared" si="2"/>
+        <v>0.26272855133614625</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>24</v>
+      </c>
+      <c r="B163" s="1">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C163" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23291139240506326</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>24</v>
+      </c>
+      <c r="B164" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="C164" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20984528832630095</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>24</v>
+      </c>
+      <c r="B165" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="C165" s="1">
+        <f t="shared" si="2"/>
+        <v>0.19127988748241909</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>24</v>
+      </c>
+      <c r="B166" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="C166" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18734177215189871</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>24</v>
+      </c>
+      <c r="B167" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="C167" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20984528832630095</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>24</v>
+      </c>
+      <c r="B168" s="1">
+        <v>4.37</v>
+      </c>
+      <c r="C168" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24585091420534455</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>24</v>
+      </c>
+      <c r="B169" s="1">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="C169" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27060478199718702</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>24</v>
+      </c>
+      <c r="B170" s="1">
+        <v>5.13</v>
+      </c>
+      <c r="C170" s="1">
+        <f t="shared" si="2"/>
+        <v>0.28860759493670884</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>24</v>
+      </c>
+      <c r="B171" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="C171" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2987341772151898</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>24</v>
+      </c>
+      <c r="B172" s="1">
+        <v>5.53</v>
+      </c>
+      <c r="C172" s="1">
+        <f t="shared" si="2"/>
+        <v>0.31111111111111106</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>24</v>
+      </c>
+      <c r="B173" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="C173" s="1">
+        <f t="shared" si="2"/>
+        <v>0.34317862165963425</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>24</v>
+      </c>
+      <c r="B174" s="1">
+        <v>6.57</v>
+      </c>
+      <c r="C174" s="1">
+        <f t="shared" si="2"/>
+        <v>0.36962025316455693</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>24</v>
+      </c>
+      <c r="B175" s="1">
+        <v>5.28</v>
+      </c>
+      <c r="C175" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2970464135021097</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>24</v>
+      </c>
+      <c r="B176" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="C176" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1451476793248945</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>24</v>
+      </c>
+      <c r="B177" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="C177" s="1">
+        <f t="shared" si="2"/>
+        <v>3.319268635724331E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>24</v>
+      </c>
+      <c r="B178" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C178" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4135021097046399E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>24</v>
+      </c>
+      <c r="B179" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="C179" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11139240506329112</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>24</v>
+      </c>
+      <c r="B180" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="C180" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14908579465541488</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>24</v>
+      </c>
+      <c r="B181" s="1">
+        <v>3.49</v>
+      </c>
+      <c r="C181" s="1">
+        <f t="shared" si="2"/>
+        <v>0.19634317862165962</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>24</v>
+      </c>
+      <c r="B182" s="1">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="C182" s="1">
+        <f t="shared" si="2"/>
+        <v>0.22616033755274256</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>24</v>
+      </c>
+      <c r="B183" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="C183" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25710267229254569</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>24</v>
+      </c>
+      <c r="B184" s="1">
+        <v>6.34</v>
+      </c>
+      <c r="C184" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35668073136427564</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>24</v>
+      </c>
+      <c r="B185" s="1">
+        <v>6.82</v>
+      </c>
+      <c r="C185" s="1">
+        <f t="shared" si="2"/>
+        <v>0.38368495077355835</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>24</v>
+      </c>
+      <c r="B186" s="1">
+        <v>5.59</v>
+      </c>
+      <c r="C186" s="1">
+        <f t="shared" si="2"/>
+        <v>0.31448663853727138</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>24</v>
+      </c>
+      <c r="B187" s="1">
+        <v>3.69</v>
+      </c>
+      <c r="C187" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20759493670886073</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>24</v>
+      </c>
+      <c r="B188" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="C188" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15471167369901545</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>24</v>
+      </c>
+      <c r="B189" s="1">
+        <v>3.51</v>
+      </c>
+      <c r="C189" s="1">
+        <f t="shared" si="2"/>
+        <v>0.19746835443037972</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>24</v>
+      </c>
+      <c r="B190" s="1">
+        <v>4.58</v>
+      </c>
+      <c r="C190" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25766526019690572</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>24</v>
+      </c>
+      <c r="B191" s="1">
+        <v>5.55</v>
+      </c>
+      <c r="C191" s="1">
+        <f t="shared" si="2"/>
+        <v>0.31223628691983119</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>24</v>
+      </c>
+      <c r="B192" s="1">
+        <v>6.19</v>
+      </c>
+      <c r="C192" s="1">
+        <f t="shared" si="2"/>
+        <v>0.34824191279887479</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>24</v>
+      </c>
+      <c r="B193" s="1">
+        <v>6.87</v>
+      </c>
+      <c r="C193" s="1">
+        <f t="shared" si="2"/>
+        <v>0.38649789029535864</v>
       </c>
     </row>
   </sheetData>
